--- a/nber-aug2017/rise-nber-parameters-vogi-psa.xlsx
+++ b/nber-aug2017/rise-nber-parameters-vogi-psa.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gravesj/Dropbox/Projects/RISE/rise-simulation/nber-aug2017/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/ACCRE/projects/rise-simulation/nber-aug2017/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="41600" windowHeight="26720" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="nber-psa" sheetId="1" r:id="rId1"/>
@@ -635,11 +635,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1:K26"/>
+      <selection pane="bottomRight" activeCell="X13" sqref="X13:Z13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1139,7 +1139,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="3">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>54</v>
@@ -1148,67 +1148,67 @@
         <v>26</v>
       </c>
       <c r="F7" s="3">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="G7" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H7" s="3">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I7" s="6">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="J7" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K7" s="6">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L7" s="3">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="M7" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N7" s="3">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O7" s="3">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="P7" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q7" s="3">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="R7" s="6">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="S7" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T7" s="6">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="U7" s="6">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="V7" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="W7" s="6">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="X7" s="6">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="Y7" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Z7" s="6">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1302,7 +1302,7 @@
         <v>0.2</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>8</v>
@@ -1311,64 +1311,64 @@
         <v>0.2</v>
       </c>
       <c r="G9" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H9" s="4">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="I9" s="4">
         <v>0.2</v>
       </c>
       <c r="J9" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K9" s="4">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="L9" s="4">
         <v>0.2</v>
       </c>
       <c r="M9" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N9" s="4">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="O9" s="4">
         <v>0.2</v>
       </c>
       <c r="P9" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q9" s="4">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="R9" s="4">
         <v>0.2</v>
       </c>
       <c r="S9" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T9" s="4">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="U9" s="4">
         <v>0.2</v>
       </c>
       <c r="V9" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W9" s="4">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="X9" s="4">
         <v>0.2</v>
       </c>
       <c r="Y9" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z9" s="4">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="4">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I13" s="4">
         <v>100</v>
@@ -1643,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="4">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L13" s="4">
         <v>100</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="4">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O13" s="4">
         <v>100</v>
@@ -1661,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="4">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R13" s="4">
         <v>100</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="4">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U13" s="4">
         <v>100</v>
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="4">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X13" s="4">
         <v>100</v>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="Z13" s="4">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2744,7 +2744,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3359,87 +3359,87 @@
       </c>
       <c r="F7" s="3">
         <f>'nber-psa'!F7</f>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="G7" s="3">
         <f>'nber-psa'!G7</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H7" s="3">
         <f>'nber-psa'!H7</f>
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I7" s="6">
         <f>'nber-psa'!I7</f>
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="J7" s="6">
         <f>'nber-psa'!J7</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K7" s="6">
         <f>'nber-psa'!K7</f>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L7" s="3">
         <f>'nber-psa'!L7</f>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="M7" s="3">
         <f>'nber-psa'!M7</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N7" s="3">
         <f>'nber-psa'!N7</f>
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O7" s="3">
         <f>'nber-psa'!O7</f>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="P7" s="3">
         <f>'nber-psa'!P7</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q7" s="3">
         <f>'nber-psa'!Q7</f>
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="R7" s="6">
         <f>'nber-psa'!R7</f>
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="S7" s="6">
         <f>'nber-psa'!S7</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T7" s="6">
         <f>'nber-psa'!T7</f>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="U7" s="6">
         <f>'nber-psa'!U7</f>
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="V7" s="6">
         <f>'nber-psa'!V7</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="W7" s="6">
         <f>'nber-psa'!W7</f>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="X7" s="6">
         <f>'nber-psa'!X7</f>
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="Y7" s="6">
         <f>'nber-psa'!Y7</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Z7" s="6">
         <f>'nber-psa'!Z7</f>
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3565,11 +3565,11 @@
       </c>
       <c r="G9" s="4">
         <f>'nber-psa'!G9</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H9" s="4">
         <f>'nber-psa'!H9</f>
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="I9" s="4">
         <f>'nber-psa'!I9</f>
@@ -3577,11 +3577,11 @@
       </c>
       <c r="J9" s="4">
         <f>'nber-psa'!J9</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K9" s="4">
         <f>'nber-psa'!K9</f>
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="L9" s="4">
         <f>'nber-psa'!L9</f>
@@ -3589,11 +3589,11 @@
       </c>
       <c r="M9" s="4">
         <f>'nber-psa'!M9</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N9" s="4">
         <f>'nber-psa'!N9</f>
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="O9" s="4">
         <f>'nber-psa'!O9</f>
@@ -3601,11 +3601,11 @@
       </c>
       <c r="P9" s="4">
         <f>'nber-psa'!P9</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q9" s="4">
         <f>'nber-psa'!Q9</f>
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="R9" s="4">
         <f>'nber-psa'!R9</f>
@@ -3613,11 +3613,11 @@
       </c>
       <c r="S9" s="4">
         <f>'nber-psa'!S9</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T9" s="4">
         <f>'nber-psa'!T9</f>
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="U9" s="4">
         <f>'nber-psa'!U9</f>
@@ -3625,11 +3625,11 @@
       </c>
       <c r="V9" s="4">
         <f>'nber-psa'!V9</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W9" s="4">
         <f>'nber-psa'!W9</f>
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="X9" s="4">
         <f>'nber-psa'!X9</f>
@@ -3637,11 +3637,11 @@
       </c>
       <c r="Y9" s="4">
         <f>'nber-psa'!Y9</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z9" s="4">
         <f>'nber-psa'!Z9</f>
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3973,7 +3973,7 @@
       </c>
       <c r="H13" s="4">
         <f>'nber-psa'!H13</f>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I13" s="4">
         <f>'nber-psa'!I13</f>
@@ -3985,7 +3985,7 @@
       </c>
       <c r="K13" s="4">
         <f>'nber-psa'!K13</f>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L13" s="4">
         <f>'nber-psa'!L13</f>
@@ -3997,7 +3997,7 @@
       </c>
       <c r="N13" s="4">
         <f>'nber-psa'!N13</f>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O13" s="4">
         <f>'nber-psa'!O13</f>
@@ -4009,7 +4009,7 @@
       </c>
       <c r="Q13" s="4">
         <f>'nber-psa'!Q13</f>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R13" s="4">
         <f>'nber-psa'!R13</f>
@@ -4021,7 +4021,7 @@
       </c>
       <c r="T13" s="4">
         <f>'nber-psa'!T13</f>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U13" s="4">
         <f>'nber-psa'!U13</f>
@@ -4033,7 +4033,7 @@
       </c>
       <c r="W13" s="4">
         <f>'nber-psa'!W13</f>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X13" s="4">
         <f>'nber-psa'!X13</f>
@@ -4045,7 +4045,7 @@
       </c>
       <c r="Z13" s="4">
         <f>'nber-psa'!Z13</f>
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -5575,15 +5575,15 @@
       </c>
       <c r="F7" s="3">
         <f>'nber-psa'!F7</f>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="G7" s="3">
         <f>'nber-psa'!G7</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H7" s="3">
         <f>'nber-psa'!H7</f>
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -5637,11 +5637,11 @@
       </c>
       <c r="G9" s="4">
         <f>'nber-psa'!G9</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H9" s="4">
         <f>'nber-psa'!H9</f>
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -5757,7 +5757,7 @@
       </c>
       <c r="H13" s="4">
         <f>'nber-psa'!H13</f>
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -6348,15 +6348,15 @@
       </c>
       <c r="F7" s="6">
         <f>'nber-psa'!I7</f>
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="G7" s="6">
         <f>'nber-psa'!J7</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H7" s="6">
         <f>'nber-psa'!K7</f>
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -6410,11 +6410,11 @@
       </c>
       <c r="G9" s="4">
         <f>'nber-psa'!J9</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H9" s="4">
         <f>'nber-psa'!K9</f>
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -6530,7 +6530,7 @@
       </c>
       <c r="H13" s="4">
         <f>'nber-psa'!K13</f>
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -6919,7 +6919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -7121,15 +7121,15 @@
       </c>
       <c r="F7" s="3">
         <f>'nber-psa'!L7</f>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="G7" s="3">
         <f>'nber-psa'!M7</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H7" s="3">
         <f>'nber-psa'!N7</f>
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -7183,11 +7183,11 @@
       </c>
       <c r="G9" s="4">
         <f>'nber-psa'!M9</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H9" s="4">
         <f>'nber-psa'!N9</f>
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -7303,7 +7303,7 @@
       </c>
       <c r="H13" s="4">
         <f>'nber-psa'!N13</f>
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -7894,15 +7894,15 @@
       </c>
       <c r="F7" s="3">
         <f>'nber-psa'!O7</f>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="G7" s="3">
         <f>'nber-psa'!P7</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H7" s="3">
         <f>'nber-psa'!Q7</f>
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -7956,11 +7956,11 @@
       </c>
       <c r="G9" s="4">
         <f>'nber-psa'!P9</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H9" s="4">
         <f>'nber-psa'!Q9</f>
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -8076,7 +8076,7 @@
       </c>
       <c r="H13" s="4">
         <f>'nber-psa'!Q13</f>
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -8667,15 +8667,15 @@
       </c>
       <c r="F7" s="6">
         <f>'nber-psa'!R7</f>
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="G7" s="6">
         <f>'nber-psa'!S7</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H7" s="6">
         <f>'nber-psa'!T7</f>
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -8729,11 +8729,11 @@
       </c>
       <c r="G9" s="4">
         <f>'nber-psa'!S9</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H9" s="4">
         <f>'nber-psa'!T9</f>
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -8849,7 +8849,7 @@
       </c>
       <c r="H13" s="4">
         <f>'nber-psa'!T13</f>
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -9440,15 +9440,15 @@
       </c>
       <c r="F7" s="6">
         <f>'nber-psa'!U7</f>
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="G7" s="6">
         <f>'nber-psa'!V7</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H7" s="6">
         <f>'nber-psa'!W7</f>
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -9502,11 +9502,11 @@
       </c>
       <c r="G9" s="4">
         <f>'nber-psa'!V9</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H9" s="4">
         <f>'nber-psa'!W9</f>
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -9622,7 +9622,7 @@
       </c>
       <c r="H13" s="4">
         <f>'nber-psa'!W13</f>
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -10213,15 +10213,15 @@
       </c>
       <c r="F7" s="6">
         <f>'nber-psa'!X7</f>
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="G7" s="6">
         <f>'nber-psa'!Y7</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H7" s="6">
         <f>'nber-psa'!Z7</f>
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -10275,11 +10275,11 @@
       </c>
       <c r="G9" s="4">
         <f>'nber-psa'!Y9</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H9" s="4">
         <f>'nber-psa'!Z9</f>
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -10395,7 +10395,7 @@
       </c>
       <c r="H13" s="4">
         <f>'nber-psa'!Z13</f>
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
